--- a/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
+++ b/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="615">
   <si>
     <t xml:space="preserve">License</t>
   </si>
@@ -3956,6 +3956,20 @@
   </si>
   <si>
     <t xml:space="preserve">UMASK 022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging and Auditing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The items in this section describe how to configure logging, log monitoring, and auditing, using tools included in most distributions.
+It is recommended that `rsyslog `be used for logging (with `logwatch `providing summarization) and `auditd` be used for auditing (with `aureport `providing summarization) to automatically monitor logs for intrusion attempts and other suspicious system behavior.
+In addition to the local log files created by the steps in this section, it is also recommended that sites collect copies of their system logs on a secure, centralized log server via an encrypted connection. Not only does centralized logging help sites correlate events that may be occurring on multiple systems, but having a second copy of the system log information may be critical after a system compromise where the attacker has modified the local log files on the affected system(s). If a log correlation system is deployed, configure it to process the logs described in this section.
+Because it is often necessary to correlate log information from many different systems (particularly after a security incident) it is recommended that the time be synchronized among systems and devices connected to the local network. The standard Internet protocol for time synchronization is the Network Time Protocol (NTP), which is supported by most network-ready devices. Reference &lt;[http://chrony.tuxfamily.org/](http://chrony.tuxfamily.org/)&gt; manual page for more information on configuring chrony.
+It is important that all logs described in this section be monitored on a regular basis and correlated to determine trends. A seemingly innocuous entry in one log could be more significant when compared to an entry in another log.
+**Note on log file permissions:** There really isn't a "one size fits all" solution to the permissions on log files. Many sites utilize group permissions so that administrators who are in a defined security group, such as "wheel" do not have to elevate privileges to root in order to read log files. Also, if a third party log aggregation tool is used, it may need to have group permissions to read the log files, which is preferable to having it run setuid to root. Therefore, there are two remediation and audit steps for log file permissions. One is for systems that do not have a secured group method implemented that only permits root to read the log files (`root:root 600`). The other is for sites that do have such a setup and are designated as `root:securegrp 640 `where `securegrp` is the defined security group (in some cases `wheel`).</t>
   </si>
 </sst>
 </file>
@@ -4233,10 +4247,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="159:159 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="175.01"/>
   </cols>
@@ -4273,16 +4287,16 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="159:159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="3" width="10"/>
@@ -13780,6 +13794,40 @@
       <c r="Z158" s="6" t="s">
         <v>611</v>
       </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="8"/>
     </row>
     <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
+++ b/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="479">
   <si>
     <t xml:space="preserve">License</t>
   </si>
@@ -3089,887 +3089,6 @@
 /etc/pam.d/common-password:password [success=1 default=ignore] pam_unix.so obscure use_authtok try_first_pass yescrypt
 ```
 Verify that the line(s) include `use_authtok`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Accounts and Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This section provides guidance on setting up secure defaults for system and user accounts and their environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure shadow password suite parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While a majority of the password control parameters have been moved to PAM, some parameters are still available through the shadow password suite. Any changes made to `/etc/login.defs `will only be applied if the `usermod `command is used. If user IDs are added a different way, use the `chage `command to effect changes to individual user IDs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure password expiration is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `PASS_MAX_DAYS` parameter in `/etc/login.defs` allows an administrator to force passwords to expire once they reach a defined age.
-`PASS_MAX_DAYS` _&lt;N&gt;_ - The maximum number of days a password may be used. If the password is older than this, a password change will be forced. If not specified, -1 will be assumed (which disables the restriction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The window of opportunity for an attacker to leverage compromised credentials or successfully compromise credentials via an online brute force attack is limited by the age of the password. Therefore, reducing the maximum age of a password also reduces an attacker's window of opportunity.
-We recommend a yearly password change. This is primarily because for all their good intentions users will share credentials across accounts. Therefore, even if a breach is publicly identified, the user may not see this notification, or forget they have an account on that site. This could leave a shared credential vulnerable indefinitely. Having an organizational policy of a 1-year (annual) password expiration is a reasonable compromise to mitigate this with minimal user burden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The password expiration must be greater than the minimum days between password changes or users will be unable to change their password.
-Excessive password expiration requirements do more harm than good, because these requirements make users select predictable passwords, composed of sequential words and numbers that are closely related to each other. In these cases, the next password can be predicted based on the previous one (incrementing a number used in the password for
-example). Also, password expiration requirements offer no containment benefits because attackers will often use credentials as soon as they compromise them. Instead, immediate password changes should be based on key events including, but not limited to:
-- Indication of compromise
-- Change of user roles
-- When a user leaves the organization.
-Not only does changing passwords every few weeks or months frustrate the user, but it’s also been suggested that it does more harm than good, because it could lead to bad practices by the user such as adding a character to the end of their existing password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the `PASS_MAX_DAYS` parameter to conform to site policy in `/etc/login.defs` :
-```
-PASS_MAX_DAYS 365
-```
-Modify user parameters for all users with a password set to match:
-```
-# chage --maxdays 365 &lt;user&gt;
-```
-Edit `/etc/login.defs` and set `PASS_MAX_DAYS` to a value greater than `0` that follows local site policy:
-_Example:_
-```
-PASS_MAX_DAYS 365
-```
-Run the following command to modify user parameters for all users with a password set to a maximum age no greater than `365` or less than `1` that follows local site policy:
-```
-# chage --maxdays &lt;N&gt; &lt;user&gt;
-```
-_Example:_
-```
-# awk -F: '($2~/^\$.+\$/) {if($5 &gt; 365 || $5 &lt; 1)system ("chage --maxdays 365 " $1)}' /etc/shadow
-```
-**Warning:** If a password has been set at system install or kickstart, the `last change date` field is not set, In this case, setting `PASS_MAX_DAYS` will immediately expire the password. One possible solution is to populate the `last change date` field through a command like: `chage -d "$(date +%Y-%m-%d)" root`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command and verify `PASS_MAX_DAYS` is set to 365 days or less and conforms to local site policy:
-```
-# grep -Pi -- '^\h*PASS_MAX_DAYS\h+\d+\b' /etc/login.defs
-```
-_Example output:_
-```
-PASS_MAX_DAYS 365
-```
-Run the following command to verify all `/etc/shadow` passwords `PASS_MAX_DAYS`:
-- is greater than `0` days
-- is less than or equal to `365` days
-- conforms to local site policy
-```
-# awk -F: '($2~/^\$.+\$/) {if($5 &gt; 365 || $5 &lt; 1)print "User: " $1 " PASS_MAX_DAYS: " $5}' /etc/shadow
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A value of -1 will disable password expiration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS Password Policy Guide:NIST SP 800-53 Rev. 5: CM-1, CM-2, CM-6, CM-7, IA-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS_MAX_DAYS 99999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure minimum password days is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`PASS_MIN_DAYS` &lt;_N_&gt; - The minimum number of days allowed between password changes. Any password changes attempted sooner than this will be rejected. If not specified, 0 will be assumed (which disables the restriction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Users may have favorite passwords that they like to use because they are easy to remember and they believe that their password choice is secure from compromise. Unfortunately, passwords are compromised and if an attacker is targeting a specific individual user account, with foreknowledge of data about that user, reuse of old, potentially compromised passwords, may cause a security breach.
-By restricting the frequency of password changes, an administrator can prevent users from repeatedly changing their password in an attempt to circumvent password reuse controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a users password is set by other personnel as a procedure in dealing with a lost or expired password, the user should be forced to update this "set" password with their own password. e.g. force "change at next logon".
-If it is not possible to have a user set their own password immediately, and this recommendation or local site procedure may cause a user to continue using a third party generated password, `PASS_MIN_DAYS` for the effected user should be temporally changed to `0`, to allow a user to change their password immediately.
-For applications where the user is not using the password at console, the ability to "change at next logon" may be limited. This may cause a user to continue to use a password created by other personnel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit `/etc/login.defs` and set `PASS_MIN_DAYS` to a value greater than `0` that follows local site policy:
-_Example:_
-```
-PASS_MIN_DAYS 1
-```
-Run the following command to modify user parameters for all users with a password set to a minimum days greater than zero that follows local site policy:
-```
-# chage --mindays &lt;N&gt; &lt;user&gt;
-```
-_Example:_
-```
-# awk -F: '($2~/^\$.+\$/) {if($4 &lt; 1)system ("chage --mindays 1 " $1)}' /etc/shadow
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify that `PASS_MIN_DAYS` is set to a value greater than `0`and follows local site policy:
-```
-# grep -Pi -- '^\h*PASS_MIN_DAYS\h+\d+\b' /etc/login.defs
-```
-_Example output:_
-```
-PASS_MIN_DAYS 1
-```
-Run the following command to verify all passwords have a `PASS_MIN_DAYS` greater than `0`:
-```
-# awk -F: '($2~/^\$.+\$/) {if($4 &lt; 1)print "User: " $1 " PASS_MIN_DAYS: " $4}' /etc/shadow
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS Password Policy Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS_MIN_DAYS 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure password expiration warning days is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `PASS_WARN_AGE` parameter in `/etc/login.defs` allows an administrator to notify users that their password will expire in a defined number of days.
-`PASS_WARN_AGE` _&lt;N&gt;_ - The number of days warning given before a password expires. A zero means warning is given only upon the day of expiration, a negative value means no warning is given. If not specified, no warning will be provided.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providing an advance warning that a password will be expiring gives users time to think of a secure password. Users caught unaware may choose a simple password or write it down where it may be discovered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit `/etc/login.defs` and set `PASS_WARN_AGE` to a value of `7` or more that follows local site policy:
-_Example:_
-```
-PASS_WARN_AGE 7
-```
-Run the following command to modify user parameters for all users with a password set to a minimum warning to `7` or more days that follows local site policy:
-```
-# chage --warndays &lt;N&gt; &lt;user&gt;
-```
-_Example:_
-```
-# awk -F: '($2~/^\$.+\$/) {if($6 &lt; 7)system ("chage --warndays 7 " $1)}' /etc/shadow
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command and verify `PASS_WARN_AGE` is `7` or more and follows local site policy:
-```
-# grep -Pi -- '^\h*PASS_WARN_AGE\h+\d+\b' /etc/login.defs
-```
-_Example output:_
-```
-PASS_WARN_AGE 7
-```
-Run the following command to verify all passwords have a `PASS_WARN_AGE` of `7` or more:
-```
-# awk -F: '($2~/^\$.+\$/) {if($6 &lt; 7)print "User: " $1 " PASS_WARN_AGE: " $6}' /etc/shadow
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE:Establish and Maintain a Secure Configuration Process CONTROL:v8 4.1 DESCRIPTION:Establish and maintain a secure configuration process for enterprise assets (end-user devices, including portable and mobile, non-computing/IoT devices, and servers) and software (operating systems and applications). Review and update documentation annually, or when significant enterprise changes occur that could impact this Safeguard.;TITLE:Use Unique Passwords CONTROL:v7 4.4 DESCRIPTION:Where multi-factor authentication is not supported (such as local administrator, root, or service accounts), accounts will use passwords that are unique to that system.;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS_WARN_AGE 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure strong password hashing algorithm is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cryptographic hash function converts an arbitrary-length input into a fixed length output. Password hashing performs a one-way transformation of a password, turning the password into another string, called the hashed password.
-`ENCRYPT_METHOD` (string) - This defines the system default encryption algorithm for encrypting passwords (if no algorithm are specified on the command line). It can take one of these values:
-- `MD5` - MD5-based algorithm will be used for encrypting password
-- `SHA256` - SHA256-based algorithm will be used for encrypting password
-- `SHA512` - SHA512-based algorithm will be used for encrypting password
-- `BCRYPT` - BCRYPT-based algorithm will be used for encrypting password
-- `YESCRYPT` - YESCRYPT-based algorithm will be used for encrypting password
-- `DES` - DES-based algorithm will be used for encrypting password (default)
-**Note:**
-- This parameter overrides the deprecated `MD5_CRYPT_ENAB` variable.
-- This parameter will only affect the generation of group passwords.
-- The generation of user passwords is done by PAM and subject to the PAM configuration.
-- It is recommended to set this variable consistently with the PAM configuration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `SHA-512` and `yescrypt` algorithms provide a stronger hash than other algorithms used by Linux for password hash generation. A stronger hash provides additional protection to the system by increasing the level of effort needed for an attacker to successfully determine local group passwords.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit `/etc/login.defs` and set the `ENCRYPT_METHOD` to `SHA512` or `YESCRYPT`:
-```
-ENCRYPT_METHOD &lt;HASHING_ALGORITHM&gt;
-```
-_Example:_
-```
-ENCRYPT_METHOD YESCRYPT
-```
-**Note:** 
-- This only effects local groups' passwords created after updating the file to use `sha512` or `yescrypt`.
-- If it is determined that the password algorithm being used is not `sha512` or `yescrypt`, once it is changed, it is recommended that all group passwords be updated to use the stronger hashing algorithm.
-- It is recommended that the chosen hashing algorithm is consistent across `/etc/login.defs` and the PAM configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify the hashing algorithm is `sha512` or `yescrypt` in `/etc/login.defs`:
-```
-# grep -Pi -- '^\h*ENCRYPT_METHOD\h+(SHA512|yescrypt)\b' /etc/login.defs
-```
-_Example output:_
-```
-ENCRYPT_METHOD SHA512
- - OR -
-ENCRYPT_METHOD YESCRYPT
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCRYPT_METHOD SHA512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure inactive password lock is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User accounts that have been inactive for over a given period of time can be automatically disabled.
-`INACTIVE` - Defines the number of days after the password exceeded its maximum age where the user is expected to replace this password.
-The value is stored in the shadow password file. An input of `0` will disable an expired password with no delay. An input of `-1` will blank the respective field in the shadow password file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactive accounts pose a threat to system security since the users are not logging in to notice failed login attempts or other anomalies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to set the default password inactivity period to 45 days or less that meets local site policy:
-```
-# useradd -D -f &lt;N&gt;
-```
-_Example:_
-```
-# useradd -D -f 45
-```
-Run the following command to modify user parameters for all users with a password set to a inactive age of `45` days or less that follows local site policy:
-```
-# chage --inactive &lt;N&gt; &lt;user&gt;
-```
-_Example:_
-```
-# awk -F: '($2~/^\$.+\$/) {if($7 &gt; 45 || $7 &lt; 0)system ("chage --inactive 45 " $1)}' /etc/shadow
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command and verify `INACTIVE` conforms to site policy (no more than 45 days):
-```
-# useradd -D | grep INACTIVE
-INACTIVE=45
-```
-Verify all users with a password have Password inactive no more than 45 days after password expires
-Verify all users with a password have Password inactive no more than 45 days after password expires: Run the following command and Review list of users and `INACTIVE` to verify that all users `INACTIVE` conforms to site policy (no more than 45 days):
-```
-# awk -F: '($2~/^\$.+\$/) {if($7 &gt; 45 || $7 &lt; 0)print "User: " $1 " INACTIVE: " $7}' /etc/shadow
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A value of -1 would disable this setting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INACTIVE=-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure all users last password change date is in the past</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All users should have a password change date in the past.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a user's recorded password change date is in the future, then they could bypass any set password expiration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigate any users with a password change date in the future and correct them. Locking the account, expiring the password, or resetting the password manually may be appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command and verify nothing is returned
-```
-{
- while IFS= read -r l_user; do
- l_change=$(date -d "$(chage --list $l_user | grep '^Last password change' | cut -d: -f2 | grep -v 'never$')" +%s)
- if [[ "$l_change" -gt "$(date +%s)" ]]; then
- echo "User: \"$l_user\" last password change was \"$(chage --list $l_user | grep '^Last password change' | cut -d: -f2)\""
- fi
- done &lt; &lt;(awk -F: '$2~/^\$.+\$/{print $1}' /etc/shadow)
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure root and system accounts and environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure root is the only UID 0 account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any account with UID 0 has superuser privileges on the system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This access must be limited to only the default `root` account and only from the system console. Administrative access must be through an unprivileged account using an approved mechanism as noted in Item 5.6 Ensure access to the su command is restricted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to change the `root` account UID to `0`:
-```
-# usermod -u 0 root
-```
-Modify any users other than `root` with UID `0` and assign them a new UID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command and verify that only "root" is returned:
-```
-# awk -F: '($3 == 0) { print $1 }' /etc/passwd
-root
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure root is the only GID 0 account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `usermod` command can be used to specify which group the `root` account belongs to. This affects permissions of files that are created by the `root` account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using GID 0 for the `root` account helps prevent `root` -owned files from accidentally becoming accessible to non-privileged users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to set the `root` user's GID to `0`:
-```
-# usermod -g 0 root
-``` 
-Run the following command to set the `root` group's GID to `0`:
-```
-# groupmod -g 0 root
-```
-Remove any users other than the `root` user with GID 0 or assign them a new GID if appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify the `root` user's primary GID is `0`, and no other user's have GID `0` as their primary GID:
-```
-# awk -F: '($1 !~ /^(sync|shutdown|halt|operator)/ &amp;&amp; $4=="0") {print $1":"$4}' /etc/passwd
-root:0
-```
-**Note:** User's: sync, shutdown, halt, and operator are excluded from the check for other user's with GID `0`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure group root is the only GID 0 group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `groupmod` command can be used to specify which group the `root` group belongs to. This affects permissions of files that are group owned by the `root` group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using GID 0 for the `root` group helps prevent `root` group owned files from accidentally becoming accessible to non-privileged users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to set the `root` group's GID to `0`:
-```
-# groupmod -g 0 root
-```
-Remove any groups other than the `root` group with GID 0 or assign them a new GID if appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify no group other than `root` is assigned GID `0`:
-```
-# awk -F: '$3=="0"{print $1":"$3}' /etc/group
-root:0
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure root account access is controlled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are a number of methods to access the root account directly. Without a password set any user would be able to gain access and thus control over the entire system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to `root` should be secured at all times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If there are any automated processes that relies on access to the root account without authentication, they will fail after remediation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to set a password for the `root` user:
-```
-# passwd root
-```
-**- OR -**
-Run the following command to lock the `root` user account:
-```
-# usermod -L root
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify that either the root user's password is set or the root user's account is locked:
-```
-# passwd -S root | awk '$2 ~ /^(P|L)/ {print "User: \"" $1 "\" Password is status: " $2}'
-```
-Verify the output is either:
-```
-User: "root" Password is status: P 
-- OR -
-User: "root" Password is status: L
-```
-**Note:**
-- `P` - Password is set
-- `L` - Password is locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure root path integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `root` user can execute any command on the system and could be fooled into executing programs unintentionally if the `PATH` is not set correctly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Including the current working directory (.) or other writable directory in `root`'s executable path makes it likely that an attacker can gain superuser access by forcing an administrator operating as `root` to execute a Trojan horse program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct or justify any:
-- Locations that are not directories
-- Empty directories (`::`)
-- Trailing (`:`)
-- Current working directory (`.`)
-- Non `root` owned directories
-- Directories that less restrictive than mode `0755`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following script to verify root's path does not include:
-- Locations that are not directories
-- An empty directory (`::`)
-- A trailing (`:`)
-- Current working directory (`.`)
-- Non `root` owned directories
-- Directories that less restrictive than mode `0755`
-```
-#!/usr/bin/env bash
-{
- l_output2=""
- l_pmask="0022"
- l_maxperm="$( printf '%o' $(( 0777 &amp; ~$l_pmask )) )"
- l_root_path="$(sudo -Hiu root env | grep '^PATH' | cut -d= -f2)"
- unset a_path_loc &amp;&amp; IFS=":" read -ra a_path_loc &lt;&lt;&lt; "$l_root_path"
- grep -q "::" &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains a empty directory (::)"
- grep -Pq ":\h*$" &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains a trailing (:)"
- grep -Pq '(\h+|:)\.(:|\h*$)' &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains current working directory (.)"
- while read -r l_path; do
- if [ -d "$l_path" ]; then
- while read -r l_fmode l_fown; do
- [ "$l_fown" != "root" ] &amp;&amp; l_output2="$l_output2\n - Directory: \"$l_path\" is owned by: \"$l_fown\" should be owned by \"root\""
- [ $(( $l_fmode &amp; $l_pmask )) -gt 0 ] &amp;&amp; l_output2="$l_output2\n - Directory: \"$l_path\" is mode: \"$l_fmode\" and should be mode: \"$l_maxperm\" or more restrictive"
- done &lt;&lt;&lt; "$(stat -Lc '%#a %U' "$l_path")"
- else
- l_output2="$l_output2\n - \"$l_path\" is not a directory"
- fi
- done &lt;&lt;&lt; "$(printf "%s\n" "${a_path_loc[@]}")"
- if [ -z "$l_output2" ]; then
- echo -e "\n- Audit Result:\n *** PASS ***\n - Root's path is correctly configured\n"
- else
- echo -e "\n- Audit Result:\n ** FAIL **\n - * Reasons for audit failure * :\n$l_output2\n"
- fi
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure root user umask is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user file-creation mode mask (`umask`) is used to determine the file permission for newly created directories and files. In Linux, the default permissions for any newly created directory is 0777 (`rwxrwxrwx`), and for any newly created file it is 0666 (`rw-rw-rw-`). The `umask` modifies the default Linux permissions by restricting (masking) these permissions. The `umask` is not simply subtracted, but is processed bitwise. Bits set in the `umask` are cleared in the resulting file mode.
-`umask` can be set with either `Octal` or `Symbolic` values:
-- `Octal` (Numeric) Value - Represented by either three or four digits. ie `umask 0027` or `umask 027`. If a four digit umask is used, the first digit is ignored. The remaining three digits effect the resulting permissions for user, group, and world/other respectively.
-- `Symbolic` Value - Represented by a comma separated list for User `u`, group `g`, and world/other `o`. The permissions listed are not masked by `umask`. ie a `umask` set by `umask u=rwx,g=rx,o=` is the `Symbolic` equivalent of the `Octal` `umask 027`. This `umask` would set a newly created directory with file mode `drwxr-x---` and a newly created file with file mode `rw-r-----`.
-**root user Shell Configuration Files:**
-- `/root/.bash_profile` - Is executed to configure the root users' shell before the initial command prompt. **Is only read by login shells.**
-- `/root/.bashrc` - Is executed for interactive shells. **only read by a shell that's both interactive and non-login**
-`umask` is set by order of precedence. If `umask` is set in multiple locations, this order of precedence will determine the system's default `umask`.
-**Order of precedence:**
-1. `/root/.bash_profile`
-2. `/root/.bashrc`
-3. The system default umask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting a secure value for `umask` ensures that users make a conscious choice about their file permissions. A permissive `umask` value could result in directories or files with excessive permissions that can be read and/or written to by unauthorized users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit `/root/.bash_profile` and `/root/.bashrc` and remove, comment out, or update any line with `umask` to be `0027` or more restrictive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following to verify the root user `umask` is set to enforce a newly created directories' permissions to be `750 (drwxr-x---)`, and a newly created file's permissions be `640 (rw-r-----)`, or more restrictive:
-```
-# grep -Psi -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' /root/.bash_profile /root/.bashrc
-```
-Nothing should be returned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIST SP 800-53 Rev. 5: AC-3, MP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System default `umask`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure system accounts do not have a valid login shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are a number of accounts provided with most distributions that are used to manage applications and are not intended to provide an interactive shell. Furthermore, a user may add special accounts that are not intended to provide an interactive shell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is important to make sure that accounts that are not being used by regular users are prevented from being used to provide an interactive shell. By default, most distributions set the password field for these accounts to an invalid string, but it is also recommended that the shell field in the password file be set to the `nologin` shell. This prevents the account from potentially being used to run any commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to set the shell for any service accounts returned by the audit to `nologin`:
-```
-# usermod -s $(command -v nologin) &lt;user&gt;
-```
-_Example script:_
-```
-#!/usr/bin/env bash
-{
- l_valid_shells="^($( awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
- awk -v pat="$l_valid_shells" -F: '($1!~/^(root|halt|sync|shutdown|nfsnobody)$/ &amp;&amp; ($3&lt;'"$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)"' || $3 == 65534) &amp;&amp; $(NF) ~ pat) {system ("usermod -s '"$(command -v nologin)"' " $1)}' /etc/passwd
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify system accounts, except for `root`, `halt`, `sync`, `shutdown` or `nfsnobody`, do not have a valid login shell:
-```
-#!/usr/bin/env bash
-{
- l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
- awk -v pat="$l_valid_shells" -F: '($1!~/^(root|halt|sync|shutdown|nfsnobody)$/ &amp;&amp; ($3&lt;'"$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)"' || $3 == 65534) &amp;&amp; $(NF) ~ pat) {print "Service account: \"" $1 "\" has a valid shell: " $7}' /etc/passwd
-}
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `root`, `sync`, `shutdown`, and `halt` users are exempted from requiring a non-login shell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIST SP 800-53 Rev. 5: AC-2(5), AC-3, AC-11, MP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure accounts without a valid login shell are locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to lock any non-root accounts without a valid login shell returned by the audit:
-```
-# usermod -L &lt;user&gt;
-```
-_Example script:_:
-```
-#!/usr/bin/env bash
-{
- l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
- while IFS= read -r l_user; do
- passwd -S "$l_user" | awk '$2 !~ /^L/ {system ("usermod -L " $1)}'
- done &lt; &lt;(awk -v pat="$l_valid_shells" -F: '($1 != "root" &amp;&amp; $(NF) !~ pat) {print $1}' /etc/passwd)
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following script to verify all non-root accounts without a valid login shell are locked.
-```
-#!/usr/bin/env bash
-{
- l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
- while IFS= read -r l_user; do
- passwd -S "$l_user" | awk '$2 !~ /^L/ {print "Account: \"" $1 "\" does not have a valid login shell and is not locked"}'
- done &lt; &lt;(awk -v pat="$l_valid_shells" -F: '($1 != "root" &amp;&amp; $(NF) !~ pat) {print $1}' /etc/passwd)
-}
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure user default environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure nologin is not listed in /etc/shells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`/etc/shells` is a text file which contains the full pathnames of valid login shells. This file is consulted by `chsh` and available to be queried by other programs.
-Be aware that there are programs which consult this file to find out if a user is a normal user; for example, FTP daemons traditionally disallow access to users with shells not included in this file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A user can use `chsh` to change their configured shell.
-If a user has a shell configured that isn't in in `/etc/shells`, then the system assumes that they're somehow restricted. In the case of `chsh` it means that the user cannot change that value.
-Other programs might query that list and apply similar restrictions.
-By putting `nologin` in `/etc/shells`, any user that has `nologin` as its shell is considered a full, unrestricted user. This is not the expected behavior for `nologin`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit `/etc/shells` and remove any lines that include `nologin`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following command to verify that `nologin` is not listed in the `/etc/shells` file:
-```
-# grep -Ps '^\h*([^#\n\r]+)?\/nologin\b' /etc/shells
-```
-Nothing should be returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shells(5):NIST SP 800-53 Rev. 5: CM-1, CM-2, CM-6, CM-7, IA-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure default user shell timeout is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`TMOUT` is an environmental setting that determines the timeout of a shell in seconds.
-- TMOUT=_n_ - Sets the shell timeout to _n_ seconds. A setting of `TMOUT=0` disables timeout.
-- readonly TMOUT- Sets the TMOUT environmental variable as readonly, preventing unwanted modification during run-time.
-- export TMOUT - exports the TMOUT variable 
-**System Wide Shell Configuration Files:**
-- `/etc/profile` - used to set system wide environmental variables on users shells. The variables are sometimes the same ones that are in the `.bash_profile`, however this file is used to set an initial PATH or PS1 for all shell users of the system. **is only executed for interactive *login* shells, or shells executed with the --login parameter.** 
-- `/etc/profile.d` - `/etc/profile` will execute the scripts within `/etc/profile.d/*.sh`. It is recommended to place your configuration in a shell script within `/etc/profile.d` to set your own system wide environmental variables.
-- `/etc/bashrc` - System wide version of `.bashrc`. In Fedora derived distributions, `/etc/bashrc` also invokes /etc/profile.d/*.sh if *non-login* shell, but redirects output to `/dev/null` if *non-interactive.* **Is only executed for *interactive* shells or if `BASH_ENV` is set to `/etc/bashrc`.**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting a timeout value reduces the window of opportunity for unauthorized user access to another user's shell session that has been left unattended. It also ends the inactive session and releases the resources associated with that session.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review `/etc/bashrc`, `/etc/profile`, and all files ending in `*.sh` in the `/etc/profile.d/` directory and remove or edit all `TMOUT=_n_` entries to follow local site policy. `TMOUT` should not exceed 900 or be equal to `0`.
-Configure `TMOUT` in **one** of the following files:
-- A file in the `/etc/profile.d/` directory ending in `.sh`
-- `/etc/profile`
-- `/etc/bashrc`
-_`TMOUT` configuration examples:_
-- As multiple lines:
-```
-TMOUT=900
-readonly TMOUT
-export TMOUT
-```
-- As a single line:
-```
-readonly TMOUT=900 ; export TMOUT
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following script to verify that `TMOUT` is configured to: include a timeout of no more than `900` seconds, to be `readonly`, to be `exported`, and is not being changed to a longer timeout.
-```
-#!/usr/bin/env bash
-{
- output1="" output2=""
- [ -f /etc/bashrc ] &amp;&amp; BRC="/etc/bashrc"
- for f in "$BRC" /etc/profile /etc/profile.d/*.sh ; do
- grep -Pq '^\s*([^#]+\s+)?TMOUT=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9])\b' "$f" &amp;&amp; grep -Pq '^\s*([^#]+;\s*)?readonly\s+TMOUT(\s+|\s*;|\s*$|=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9]))\b' "$f" &amp;&amp; grep -Pq '^\s*([^#]+;\s*)?export\s+TMOUT(\s+|\s*;|\s*$|=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9]))\b' "$f" &amp;&amp; 
- output1="$f"
- done
- grep -Pq '^\s*([^#]+\s+)?TMOUT=(9[0-9][1-9]|9[1-9][0-9]|0+|[1-9]\d{3,})\b' /etc/profile /etc/profile.d/*.sh "$BRC" &amp;&amp; output2=$(grep -Ps '^\s*([^#]+\s+)?TMOUT=(9[0-9][1-9]|9[1-9][0-9]|0+|[1-9]\d{3,})\b' /etc/profile /etc/profile.d/*.sh $BRC)
- if [ -n "$output1" ] &amp;&amp; [ -z "$output2" ]; then
- echo -e "\nPASSED\n\nTMOUT is configured in: \"$output1\"\n"
- else
- [ -z "$output1" ] &amp;&amp; echo -e "\nFAILED\n\nTMOUT is not configured\n"
- [ -n "$output2" ] &amp;&amp; echo -e "\nFAILED\n\nTMOUT is incorrectly configured in: \"$output2\"\n"
- fi
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked. Other methods of setting a timeout exist for other shells not covered here.
-Ensure that the timeout conforms to your local policy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE:Configure Automatic Session Locking on Enterprise Assets CONTROL:v8 4.3 DESCRIPTION:Configure automatic session locking on enterprise assets after a defined period of inactivity. For general purpose operating systems, the period must not exceed 15 minutes. For mobile end-user devices, the period must not exceed 2 minutes.;TITLE:Lock Workstation Sessions After Inactivity CONTROL:v7 16.11 DESCRIPTION:Automatically lock workstation sessions after a standard period of inactivity.;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure default user umask is configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user file-creation mode mask (`umask`) is used to determine the file permission for newly created directories and files. In Linux, the default permissions for any newly created directory is 0777 (`rwxrwxrwx`), and for any newly created file it is 0666 (`rw-rw-rw-`). The `umask` modifies the default Linux permissions by restricting (masking) these permissions. The `umask` is not simply subtracted, but is processed bitwise. Bits set in the `umask` are cleared in the resulting file mode.
-`umask` can be set with either `Octal` or `Symbolic` values:
-- `Octal` (Numeric) Value - Represented by either three or four digits. ie `umask 0027` or `umask 027`. If a four digit umask is used, the first digit is ignored. The remaining three digits effect the resulting permissions for user, group, and world/other respectively.
-- `Symbolic` Value - Represented by a comma separated list for User `u`, group `g`, and world/other `o`. The permissions listed are not masked by `umask`. ie a `umask` set by `umask u=rwx,g=rx,o=` is the `Symbolic` equivalent of the `Octal` `umask 027`. This `umask` would set a newly created directory with file mode `drwxr-x---` and a newly created file with file mode `rw-r-----`.
-The default `umask` can be set to use the `pam_umask` module or in a `System Wide Shell Configuration File`. The user creating the directories or files has the discretion of changing the permissions via the chmod command, or choosing a different default `umask` by adding the `umask` command into a `User Shell Configuration File`, ( `.bash_profile` or `.bashrc`), in their home directory.
-**Setting the default umask:**
-- pam_umask module:
- - will set the umask according to the system default in `/etc/login.defs` and user settings, solving the problem of different `umask` settings with different shells, display managers, remote sessions etc.
- - `umask=&lt;mask&gt;` value in the `/etc/login.defs` file is interpreted as Octal
- - Setting `USERGROUPS_ENAB` to yes in `/etc/login.defs` (default):
- - will enable setting of the `umask` group bits to be the same as owner bits. (examples: 022 -&gt; 002, 077 -&gt; 007) for non-root users, if the `uid` is the same as `gid`, and `username` is the same as the `&lt;primary group name&gt;`
- - userdel will remove the user's group if it contains no more members, and useradd will create by default a group with the name of the user
-- `System Wide Shell Configuration File`:
- - `/etc/profile` - used to set system wide environmental variables on users shells. The variables are sometimes the same ones that are in the `.bash_profile`, however this file is used to set an initial PATH or PS1 for all shell users of the system. **is only executed for interactive *login* shells, or shells executed with the --login parameter.** 
- - `/etc/profile.d` - `/etc/profile` will execute the scripts within `/etc/profile.d/*.sh`. It is recommended to place your configuration in a shell script within `/etc/profile.d` to set your own system wide environmental variables.
- - `/etc/bashrc` - System wide version of `.bashrc`. In Fedora derived distributions, `etc/bashrc` also invokes /etc/profile.d/*.sh if *non-login* shell, but redirects output to `/dev/null` if *non-interactive.* **Is only executed for *interactive* shells or if `BASH_ENV` is set to `/etc/bashrc`.**
-**User Shell Configuration Files:**
-- `~/.bash_profile` - Is executed to configure your shell before the initial command prompt. **Is only read by login shells.**
-- `~/.bashrc` - Is executed for interactive shells. **only read by a shell that's both interactive and non-login**
-`umask` is set by order of precedence. If `umask` is set in multiple locations, this order of precedence will determine the system's default `umask`.
-**Order of precedence:**
-1. A file in `/etc/profile.d/` ending in `.sh` - This will override any other system-wide `umask` setting
-2. In the file `/etc/profile`
-3. On the `pam_umask.so` module in `/etc/pam.d/postlogin`
-4. In the file `/etc/login.defs`
-5. In the file `/etc/default/login`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting a secure default value for `umask` ensures that users make a conscious choice about their file permissions. A permissive `umask` value could result in directories or files with excessive permissions that can be read and/or written to by unauthorized users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following script and perform the instructions in the output to set the default umask to `027` or more restrictive:
-```
-#!/usr/bin/env bash
-{
- l_output="" l_output2="" l_out=""
- file_umask_chk()
- {
- if grep -Psiq -- '^\h*umask\h+(0?[0-7][2-7]7|u(=[rwx]{0,3}),g=([rx]{0,2}),o=)(\h*#.*)?$' "$l_file"; then
- l_out="$l_out\n - umask is set correctly in \"$l_file\""
- elif grep -Psiq -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' "$l_file"; then
- l_output2="$l_output2\n - \"$l_file\""
- fi
- }
- while IFS= read -r -d $'\0' l_file; do
- file_umask_chk
- done &lt; &lt;(find /etc/profile.d/ -type f -name '*.sh' -print0)
- [ -n "$l_out" ] &amp;&amp; l_output="$l_out"
- l_file="/etc/profile" &amp;&amp; file_umask_chk
- l_file="/etc/bashrc" &amp;&amp; file_umask_chk
- l_file="/etc/bash.bashrc" &amp;&amp; file_umask_chk
- l_file="/etc/pam.d/postlogin"
- if grep -Psiq '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b))' "$l_file"; then
- l_output2="$l_output2\n - \"$l_file\""
- fi
- l_file="/etc/login.defs" &amp;&amp; file_umask_chk
- l_file="/etc/default/login" &amp;&amp; file_umask_chk
- if [ -z "$l_output2" ]; then
- echo -e " - No files contain a UMASK that is not restrictive enough\n No UMASK updates required to existing files"
- else
- echo -e "\n - UMASK is not restrictive enough in the following file(s):$l_output2\n\n- Remediation Procedure:\n - Update these files and comment out the UMASK line\n or update umask to be \"0027\" or more restrictive"
- fi
- if [ -n "$l_output" ]; then
- echo -e "$l_output"
- else
- echo -e " - Configure UMASK in a file in the \"/etc/profile.d/\" directory ending in \".sh\"\n\n Example Command (Hash to represent being run at a root prompt):\n\n# printf '%s\\\n' \"umask 027\" &gt; /etc/profile.d/50-systemwide_umask.sh\n"
- fi
-}
-```
-**Notes:**
-- This method only applies to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked
-- If the `pam_umask.so` module is going to be used to set `umask`, ensure that it's not being overridden by another setting. Refer to the PAM_UMASK(8) man page for more information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run the following to verify the default user `umask` is set to `027`(octal) or `u=rwx,g=rx,o=` (Symbolic) to enforce newly created directories' permissions to be `750 (drwxr-x---)`, and newly created file's permissions be `640 (rw-r-----)`, or more restrictive:
-```
-#!/usr/bin/env bash
-{ 
- l_output="" l_output2=""
- file_umask_chk()
- {
- if grep -Psiq -- '^\h*umask\h+(0?[0-7][2-7]7|u(=[rwx]{0,3}),g=([rx]{0,2}),o=)(\h*#.*)?$' "$l_file"; then
- l_output="$l_output\n - umask is set correctly in \"$l_file\""
- elif grep -Psiq -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' "$l_file"; then
- l_output2="$l_output2\n - umask is incorrectly set in \"$l_file\""
- fi
- }
- while IFS= read -r -d $'\0' l_file; do
- file_umask_chk
- done &lt; &lt;(find /etc/profile.d/ -type f -name '*.sh' -print0)
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/profile" &amp;&amp; file_umask_chk
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/bashrc" &amp;&amp; file_umask_chk
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/bash.bashrc" &amp;&amp; file_umask_chk
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/pam.d/postlogin"
- if [ -z "$l_output" ]; then
- if grep -Psiq -- '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(0?[0-7][2-7]7)\b' "$l_file"; then
- l_output1="$l_output1\n - umask is set correctly in \"$l_file\""
- elif grep -Psiq '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b))' "$l_file"; then
- l_output2="$l_output2\n - umask is incorrectly set in \"$l_file\""
- fi
- fi
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/login.defs" &amp;&amp; file_umask_chk
- [ -z "$l_output" ] &amp;&amp; l_file="/etc/default/login" &amp;&amp; file_umask_chk
- [[ -z "$l_output" &amp;&amp; -z "$l_output2" ]] &amp;&amp; l_output2="$l_output2\n - umask is not set"
- if [ -z "$l_output2" ]; then
- echo -e "\n- Audit Result:\n ** PASS **\n - * Correctly configured * :\n$l_output\n"
- else
- echo -e "\n- Audit Result:\n ** FAIL **\n - * Reasons for audit failure * :\n$l_output2"
- [ -n "$l_output" ] &amp;&amp; echo -e "\n- * Correctly configured * :\n$l_output\n"
- fi
-}
-```</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'- Other methods of setting a default user umask exist
-- If other methods are in use in your environment they should be audited
-- The default user umask can be overridden with a user specific umask
-- The user creating the directories or files has the discretion of changing the permissions:
- - Using the chmod command
- - Setting a different default umask by adding the umask command into a User Shell Configuration File, (.bashrc), in their home directory
- - Manually changing the umask for the duration of a login session by running the umask command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMASK 022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging and Auditing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The items in this section describe how to configure logging, log monitoring, and auditing, using tools included in most distributions.
-It is recommended that `rsyslog `be used for logging (with `logwatch `providing summarization) and `auditd` be used for auditing (with `aureport `providing summarization) to automatically monitor logs for intrusion attempts and other suspicious system behavior.
-In addition to the local log files created by the steps in this section, it is also recommended that sites collect copies of their system logs on a secure, centralized log server via an encrypted connection. Not only does centralized logging help sites correlate events that may be occurring on multiple systems, but having a second copy of the system log information may be critical after a system compromise where the attacker has modified the local log files on the affected system(s). If a log correlation system is deployed, configure it to process the logs described in this section.
-Because it is often necessary to correlate log information from many different systems (particularly after a security incident) it is recommended that the time be synchronized among systems and devices connected to the local network. The standard Internet protocol for time synchronization is the Network Time Protocol (NTP), which is supported by most network-ready devices. Reference &lt;[http://chrony.tuxfamily.org/](http://chrony.tuxfamily.org/)&gt; manual page for more information on configuring chrony.
-It is important that all logs described in this section be monitored on a regular basis and correlated to determine trends. A seemingly innocuous entry in one log could be more significant when compared to an entry in another log.
-**Note on log file permissions:** There really isn't a "one size fits all" solution to the permissions on log files. Many sites utilize group permissions so that administrators who are in a defined security group, such as "wheel" do not have to elevate privileges to root in order to read log files. Also, if a third party log aggregation tool is used, it may need to have group permissions to read the log files, which is preferable to having it run setuid to root. Therefore, there are two remediation and audit steps for log file permissions. One is for systems that do not have a secured group method implemented that only permits root to read the log files (`root:root 600`). The other is for sites that do have such a setup and are designated as `root:securegrp 640 `where `securegrp` is the defined security group (in some cases `wheel`).</t>
   </si>
 </sst>
 </file>
@@ -4247,10 +3366,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="159:159 A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="175.01"/>
   </cols>
@@ -4289,10 +3408,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="159:159"/>
+      <selection pane="bottomLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15"/>
@@ -11511,2324 +10630,45 @@
       </c>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L123" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S123" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y123" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z123" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S124" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X124" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y124" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z124" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S125" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y125" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z125" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q126" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R126" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S126" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
-      <c r="W126" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X126" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y126" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z126" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="M127" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S127" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y127" s="7"/>
-      <c r="Z127" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S128" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="M129" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S129" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y129" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z129" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R130" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S130" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X130" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y130" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z130" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="J131" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="L131" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M131" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q131" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R131" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S131" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T131" s="7"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X131" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y131" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z131" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="H132" s="5"/>
-      <c r="I132" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q132" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R132" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S132" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="W132" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X132" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y132" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z132" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M133" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S133" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T133" s="7"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y133" s="7"/>
-      <c r="Z133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S134" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
-      <c r="W134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="6"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
-      <c r="T135" s="7"/>
-      <c r="U135" s="7"/>
-      <c r="V135" s="7"/>
-      <c r="W135" s="7"/>
-      <c r="X135" s="7"/>
-      <c r="Y135" s="7"/>
-      <c r="Z135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="H136" s="5"/>
-      <c r="I136" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="W136" s="5"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z136" s="6"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="J137" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="7"/>
-      <c r="U137" s="7"/>
-      <c r="V137" s="7"/>
-      <c r="W137" s="7"/>
-      <c r="X137" s="7"/>
-      <c r="Y137" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="H138" s="5"/>
-      <c r="I138" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S138" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5"/>
-      <c r="V138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y138" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z138" s="6"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H139" s="7"/>
-      <c r="I139" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M139" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S139" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T139" s="7"/>
-      <c r="U139" s="7"/>
-      <c r="V139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y139" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H140" s="5"/>
-      <c r="I140" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M140" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S140" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X140" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y140" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z140" s="6"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H141" s="7"/>
-      <c r="I141" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M141" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S141" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T141" s="7"/>
-      <c r="U141" s="7"/>
-      <c r="V141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y141" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M142" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S142" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X142" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M143" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S143" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T143" s="7"/>
-      <c r="U143" s="7"/>
-      <c r="V143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y143" s="7"/>
-      <c r="Z143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="H144" s="5"/>
-      <c r="I144" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="7"/>
-      <c r="R145" s="7"/>
-      <c r="S145" s="7"/>
-      <c r="T145" s="7"/>
-      <c r="U145" s="7"/>
-      <c r="V145" s="7"/>
-      <c r="W145" s="7"/>
-      <c r="X145" s="7"/>
-      <c r="Y145" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S146" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y146" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z146" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M147" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T147" s="7"/>
-      <c r="U147" s="7"/>
-      <c r="V147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X147" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y147" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z147" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="H148" s="5"/>
-      <c r="I148" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M148" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S148" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y148" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="Z148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="H149" s="7"/>
-      <c r="I149" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="J149" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="L149" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M149" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S149" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T149" s="7"/>
-      <c r="U149" s="7"/>
-      <c r="V149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X149" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y149" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Z149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="H150" s="5"/>
-      <c r="I150" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S150" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X150" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y150" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="Z150" s="6"/>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="H151" s="7"/>
-      <c r="I151" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="J151" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M151" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S151" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T151" s="7"/>
-      <c r="U151" s="7"/>
-      <c r="V151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X151" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y151" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Z151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J153" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="7"/>
-      <c r="R153" s="7"/>
-      <c r="S153" s="7"/>
-      <c r="T153" s="7"/>
-      <c r="U153" s="7"/>
-      <c r="V153" s="7"/>
-      <c r="W153" s="7"/>
-      <c r="X153" s="7"/>
-      <c r="Y153" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Z153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="Z154" s="6"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H155" s="7"/>
-      <c r="I155" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="J155" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="L155" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="M155" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S155" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="T155" s="7"/>
-      <c r="U155" s="7"/>
-      <c r="V155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X155" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y155" s="7"/>
-      <c r="Z155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="H156" s="5"/>
-      <c r="I156" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="L156" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="M156" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S156" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5"/>
-      <c r="V156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y156" s="5"/>
-      <c r="Z156" s="6"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="H157" s="7"/>
-      <c r="I157" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="J157" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="K157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="L157" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M157" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S157" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T157" s="7"/>
-      <c r="U157" s="7"/>
-      <c r="V157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y157" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z157" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="H158" s="5"/>
-      <c r="I158" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="K158" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M158" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S158" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5"/>
-      <c r="V158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X158" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y158" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z158" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="7"/>
-      <c r="R159" s="7"/>
-      <c r="S159" s="7"/>
-      <c r="T159" s="7"/>
-      <c r="U159" s="7"/>
-      <c r="V159" s="7"/>
-      <c r="W159" s="7"/>
-      <c r="X159" s="7"/>
-      <c r="Y159" s="7"/>
-      <c r="Z159" s="8"/>
-    </row>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
+++ b/data/CIS_Ubuntu_Linux_24.04_LTS_Benchmark_snippet_v1.0.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="615">
   <si>
     <t xml:space="preserve">License</t>
   </si>
@@ -3089,6 +3089,887 @@
 /etc/pam.d/common-password:password [success=1 default=ignore] pam_unix.so obscure use_authtok try_first_pass yescrypt
 ```
 Verify that the line(s) include `use_authtok`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Accounts and Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section provides guidance on setting up secure defaults for system and user accounts and their environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure shadow password suite parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While a majority of the password control parameters have been moved to PAM, some parameters are still available through the shadow password suite. Any changes made to `/etc/login.defs `will only be applied if the `usermod `command is used. If user IDs are added a different way, use the `chage `command to effect changes to individual user IDs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure password expiration is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `PASS_MAX_DAYS` parameter in `/etc/login.defs` allows an administrator to force passwords to expire once they reach a defined age.
+`PASS_MAX_DAYS` _&lt;N&gt;_ - The maximum number of days a password may be used. If the password is older than this, a password change will be forced. If not specified, -1 will be assumed (which disables the restriction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window of opportunity for an attacker to leverage compromised credentials or successfully compromise credentials via an online brute force attack is limited by the age of the password. Therefore, reducing the maximum age of a password also reduces an attacker's window of opportunity.
+We recommend a yearly password change. This is primarily because for all their good intentions users will share credentials across accounts. Therefore, even if a breach is publicly identified, the user may not see this notification, or forget they have an account on that site. This could leave a shared credential vulnerable indefinitely. Having an organizational policy of a 1-year (annual) password expiration is a reasonable compromise to mitigate this with minimal user burden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The password expiration must be greater than the minimum days between password changes or users will be unable to change their password.
+Excessive password expiration requirements do more harm than good, because these requirements make users select predictable passwords, composed of sequential words and numbers that are closely related to each other. In these cases, the next password can be predicted based on the previous one (incrementing a number used in the password for
+example). Also, password expiration requirements offer no containment benefits because attackers will often use credentials as soon as they compromise them. Instead, immediate password changes should be based on key events including, but not limited to:
+- Indication of compromise
+- Change of user roles
+- When a user leaves the organization.
+Not only does changing passwords every few weeks or months frustrate the user, but it’s also been suggested that it does more harm than good, because it could lead to bad practices by the user such as adding a character to the end of their existing password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the `PASS_MAX_DAYS` parameter to conform to site policy in `/etc/login.defs` :
+```
+PASS_MAX_DAYS 365
+```
+Modify user parameters for all users with a password set to match:
+```
+# chage --maxdays 365 &lt;user&gt;
+```
+Edit `/etc/login.defs` and set `PASS_MAX_DAYS` to a value greater than `0` that follows local site policy:
+_Example:_
+```
+PASS_MAX_DAYS 365
+```
+Run the following command to modify user parameters for all users with a password set to a maximum age no greater than `365` or less than `1` that follows local site policy:
+```
+# chage --maxdays &lt;N&gt; &lt;user&gt;
+```
+_Example:_
+```
+# awk -F: '($2~/^\$.+\$/) {if($5 &gt; 365 || $5 &lt; 1)system ("chage --maxdays 365 " $1)}' /etc/shadow
+```
+**Warning:** If a password has been set at system install or kickstart, the `last change date` field is not set, In this case, setting `PASS_MAX_DAYS` will immediately expire the password. One possible solution is to populate the `last change date` field through a command like: `chage -d "$(date +%Y-%m-%d)" root`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command and verify `PASS_MAX_DAYS` is set to 365 days or less and conforms to local site policy:
+```
+# grep -Pi -- '^\h*PASS_MAX_DAYS\h+\d+\b' /etc/login.defs
+```
+_Example output:_
+```
+PASS_MAX_DAYS 365
+```
+Run the following command to verify all `/etc/shadow` passwords `PASS_MAX_DAYS`:
+- is greater than `0` days
+- is less than or equal to `365` days
+- conforms to local site policy
+```
+# awk -F: '($2~/^\$.+\$/) {if($5 &gt; 365 || $5 &lt; 1)print "User: " $1 " PASS_MAX_DAYS: " $5}' /etc/shadow
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A value of -1 will disable password expiration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS Password Policy Guide:NIST SP 800-53 Rev. 5: CM-1, CM-2, CM-6, CM-7, IA-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS_MAX_DAYS 99999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure minimum password days is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`PASS_MIN_DAYS` &lt;_N_&gt; - The minimum number of days allowed between password changes. Any password changes attempted sooner than this will be rejected. If not specified, 0 will be assumed (which disables the restriction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users may have favorite passwords that they like to use because they are easy to remember and they believe that their password choice is secure from compromise. Unfortunately, passwords are compromised and if an attacker is targeting a specific individual user account, with foreknowledge of data about that user, reuse of old, potentially compromised passwords, may cause a security breach.
+By restricting the frequency of password changes, an administrator can prevent users from repeatedly changing their password in an attempt to circumvent password reuse controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a users password is set by other personnel as a procedure in dealing with a lost or expired password, the user should be forced to update this "set" password with their own password. e.g. force "change at next logon".
+If it is not possible to have a user set their own password immediately, and this recommendation or local site procedure may cause a user to continue using a third party generated password, `PASS_MIN_DAYS` for the effected user should be temporally changed to `0`, to allow a user to change their password immediately.
+For applications where the user is not using the password at console, the ability to "change at next logon" may be limited. This may cause a user to continue to use a password created by other personnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit `/etc/login.defs` and set `PASS_MIN_DAYS` to a value greater than `0` that follows local site policy:
+_Example:_
+```
+PASS_MIN_DAYS 1
+```
+Run the following command to modify user parameters for all users with a password set to a minimum days greater than zero that follows local site policy:
+```
+# chage --mindays &lt;N&gt; &lt;user&gt;
+```
+_Example:_
+```
+# awk -F: '($2~/^\$.+\$/) {if($4 &lt; 1)system ("chage --mindays 1 " $1)}' /etc/shadow
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify that `PASS_MIN_DAYS` is set to a value greater than `0`and follows local site policy:
+```
+# grep -Pi -- '^\h*PASS_MIN_DAYS\h+\d+\b' /etc/login.defs
+```
+_Example output:_
+```
+PASS_MIN_DAYS 1
+```
+Run the following command to verify all passwords have a `PASS_MIN_DAYS` greater than `0`:
+```
+# awk -F: '($2~/^\$.+\$/) {if($4 &lt; 1)print "User: " $1 " PASS_MIN_DAYS: " $4}' /etc/shadow
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS Password Policy Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS_MIN_DAYS 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure password expiration warning days is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `PASS_WARN_AGE` parameter in `/etc/login.defs` allows an administrator to notify users that their password will expire in a defined number of days.
+`PASS_WARN_AGE` _&lt;N&gt;_ - The number of days warning given before a password expires. A zero means warning is given only upon the day of expiration, a negative value means no warning is given. If not specified, no warning will be provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing an advance warning that a password will be expiring gives users time to think of a secure password. Users caught unaware may choose a simple password or write it down where it may be discovered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit `/etc/login.defs` and set `PASS_WARN_AGE` to a value of `7` or more that follows local site policy:
+_Example:_
+```
+PASS_WARN_AGE 7
+```
+Run the following command to modify user parameters for all users with a password set to a minimum warning to `7` or more days that follows local site policy:
+```
+# chage --warndays &lt;N&gt; &lt;user&gt;
+```
+_Example:_
+```
+# awk -F: '($2~/^\$.+\$/) {if($6 &lt; 7)system ("chage --warndays 7 " $1)}' /etc/shadow
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command and verify `PASS_WARN_AGE` is `7` or more and follows local site policy:
+```
+# grep -Pi -- '^\h*PASS_WARN_AGE\h+\d+\b' /etc/login.defs
+```
+_Example output:_
+```
+PASS_WARN_AGE 7
+```
+Run the following command to verify all passwords have a `PASS_WARN_AGE` of `7` or more:
+```
+# awk -F: '($2~/^\$.+\$/) {if($6 &lt; 7)print "User: " $1 " PASS_WARN_AGE: " $6}' /etc/shadow
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE:Establish and Maintain a Secure Configuration Process CONTROL:v8 4.1 DESCRIPTION:Establish and maintain a secure configuration process for enterprise assets (end-user devices, including portable and mobile, non-computing/IoT devices, and servers) and software (operating systems and applications). Review and update documentation annually, or when significant enterprise changes occur that could impact this Safeguard.;TITLE:Use Unique Passwords CONTROL:v7 4.4 DESCRIPTION:Where multi-factor authentication is not supported (such as local administrator, root, or service accounts), accounts will use passwords that are unique to that system.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS_WARN_AGE 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure strong password hashing algorithm is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cryptographic hash function converts an arbitrary-length input into a fixed length output. Password hashing performs a one-way transformation of a password, turning the password into another string, called the hashed password.
+`ENCRYPT_METHOD` (string) - This defines the system default encryption algorithm for encrypting passwords (if no algorithm are specified on the command line). It can take one of these values:
+- `MD5` - MD5-based algorithm will be used for encrypting password
+- `SHA256` - SHA256-based algorithm will be used for encrypting password
+- `SHA512` - SHA512-based algorithm will be used for encrypting password
+- `BCRYPT` - BCRYPT-based algorithm will be used for encrypting password
+- `YESCRYPT` - YESCRYPT-based algorithm will be used for encrypting password
+- `DES` - DES-based algorithm will be used for encrypting password (default)
+**Note:**
+- This parameter overrides the deprecated `MD5_CRYPT_ENAB` variable.
+- This parameter will only affect the generation of group passwords.
+- The generation of user passwords is done by PAM and subject to the PAM configuration.
+- It is recommended to set this variable consistently with the PAM configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `SHA-512` and `yescrypt` algorithms provide a stronger hash than other algorithms used by Linux for password hash generation. A stronger hash provides additional protection to the system by increasing the level of effort needed for an attacker to successfully determine local group passwords.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit `/etc/login.defs` and set the `ENCRYPT_METHOD` to `SHA512` or `YESCRYPT`:
+```
+ENCRYPT_METHOD &lt;HASHING_ALGORITHM&gt;
+```
+_Example:_
+```
+ENCRYPT_METHOD YESCRYPT
+```
+**Note:** 
+- This only effects local groups' passwords created after updating the file to use `sha512` or `yescrypt`.
+- If it is determined that the password algorithm being used is not `sha512` or `yescrypt`, once it is changed, it is recommended that all group passwords be updated to use the stronger hashing algorithm.
+- It is recommended that the chosen hashing algorithm is consistent across `/etc/login.defs` and the PAM configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify the hashing algorithm is `sha512` or `yescrypt` in `/etc/login.defs`:
+```
+# grep -Pi -- '^\h*ENCRYPT_METHOD\h+(SHA512|yescrypt)\b' /etc/login.defs
+```
+_Example output:_
+```
+ENCRYPT_METHOD SHA512
+ - OR -
+ENCRYPT_METHOD YESCRYPT
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCRYPT_METHOD SHA512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure inactive password lock is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User accounts that have been inactive for over a given period of time can be automatically disabled.
+`INACTIVE` - Defines the number of days after the password exceeded its maximum age where the user is expected to replace this password.
+The value is stored in the shadow password file. An input of `0` will disable an expired password with no delay. An input of `-1` will blank the respective field in the shadow password file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inactive accounts pose a threat to system security since the users are not logging in to notice failed login attempts or other anomalies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to set the default password inactivity period to 45 days or less that meets local site policy:
+```
+# useradd -D -f &lt;N&gt;
+```
+_Example:_
+```
+# useradd -D -f 45
+```
+Run the following command to modify user parameters for all users with a password set to a inactive age of `45` days or less that follows local site policy:
+```
+# chage --inactive &lt;N&gt; &lt;user&gt;
+```
+_Example:_
+```
+# awk -F: '($2~/^\$.+\$/) {if($7 &gt; 45 || $7 &lt; 0)system ("chage --inactive 45 " $1)}' /etc/shadow
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command and verify `INACTIVE` conforms to site policy (no more than 45 days):
+```
+# useradd -D | grep INACTIVE
+INACTIVE=45
+```
+Verify all users with a password have Password inactive no more than 45 days after password expires
+Verify all users with a password have Password inactive no more than 45 days after password expires: Run the following command and Review list of users and `INACTIVE` to verify that all users `INACTIVE` conforms to site policy (no more than 45 days):
+```
+# awk -F: '($2~/^\$.+\$/) {if($7 &gt; 45 || $7 &lt; 0)print "User: " $1 " INACTIVE: " $7}' /etc/shadow
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A value of -1 would disable this setting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INACTIVE=-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure all users last password change date is in the past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All users should have a password change date in the past.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a user's recorded password change date is in the future, then they could bypass any set password expiration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate any users with a password change date in the future and correct them. Locking the account, expiring the password, or resetting the password manually may be appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command and verify nothing is returned
+```
+{
+ while IFS= read -r l_user; do
+ l_change=$(date -d "$(chage --list $l_user | grep '^Last password change' | cut -d: -f2 | grep -v 'never$')" +%s)
+ if [[ "$l_change" -gt "$(date +%s)" ]]; then
+ echo "User: \"$l_user\" last password change was \"$(chage --list $l_user | grep '^Last password change' | cut -d: -f2)\""
+ fi
+ done &lt; &lt;(awk -F: '$2~/^\$.+\$/{print $1}' /etc/shadow)
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure root and system accounts and environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure root is the only UID 0 account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any account with UID 0 has superuser privileges on the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This access must be limited to only the default `root` account and only from the system console. Administrative access must be through an unprivileged account using an approved mechanism as noted in Item 5.6 Ensure access to the su command is restricted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to change the `root` account UID to `0`:
+```
+# usermod -u 0 root
+```
+Modify any users other than `root` with UID `0` and assign them a new UID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command and verify that only "root" is returned:
+```
+# awk -F: '($3 == 0) { print $1 }' /etc/passwd
+root
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure root is the only GID 0 account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `usermod` command can be used to specify which group the `root` account belongs to. This affects permissions of files that are created by the `root` account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using GID 0 for the `root` account helps prevent `root` -owned files from accidentally becoming accessible to non-privileged users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to set the `root` user's GID to `0`:
+```
+# usermod -g 0 root
+``` 
+Run the following command to set the `root` group's GID to `0`:
+```
+# groupmod -g 0 root
+```
+Remove any users other than the `root` user with GID 0 or assign them a new GID if appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify the `root` user's primary GID is `0`, and no other user's have GID `0` as their primary GID:
+```
+# awk -F: '($1 !~ /^(sync|shutdown|halt|operator)/ &amp;&amp; $4=="0") {print $1":"$4}' /etc/passwd
+root:0
+```
+**Note:** User's: sync, shutdown, halt, and operator are excluded from the check for other user's with GID `0`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure group root is the only GID 0 group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `groupmod` command can be used to specify which group the `root` group belongs to. This affects permissions of files that are group owned by the `root` group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using GID 0 for the `root` group helps prevent `root` group owned files from accidentally becoming accessible to non-privileged users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to set the `root` group's GID to `0`:
+```
+# groupmod -g 0 root
+```
+Remove any groups other than the `root` group with GID 0 or assign them a new GID if appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify no group other than `root` is assigned GID `0`:
+```
+# awk -F: '$3=="0"{print $1":"$3}' /etc/group
+root:0
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure root account access is controlled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a number of methods to access the root account directly. Without a password set any user would be able to gain access and thus control over the entire system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to `root` should be secured at all times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there are any automated processes that relies on access to the root account without authentication, they will fail after remediation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to set a password for the `root` user:
+```
+# passwd root
+```
+**- OR -**
+Run the following command to lock the `root` user account:
+```
+# usermod -L root
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify that either the root user's password is set or the root user's account is locked:
+```
+# passwd -S root | awk '$2 ~ /^(P|L)/ {print "User: \"" $1 "\" Password is status: " $2}'
+```
+Verify the output is either:
+```
+User: "root" Password is status: P 
+- OR -
+User: "root" Password is status: L
+```
+**Note:**
+- `P` - Password is set
+- `L` - Password is locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure root path integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `root` user can execute any command on the system and could be fooled into executing programs unintentionally if the `PATH` is not set correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including the current working directory (.) or other writable directory in `root`'s executable path makes it likely that an attacker can gain superuser access by forcing an administrator operating as `root` to execute a Trojan horse program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct or justify any:
+- Locations that are not directories
+- Empty directories (`::`)
+- Trailing (`:`)
+- Current working directory (`.`)
+- Non `root` owned directories
+- Directories that less restrictive than mode `0755`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following script to verify root's path does not include:
+- Locations that are not directories
+- An empty directory (`::`)
+- A trailing (`:`)
+- Current working directory (`.`)
+- Non `root` owned directories
+- Directories that less restrictive than mode `0755`
+```
+#!/usr/bin/env bash
+{
+ l_output2=""
+ l_pmask="0022"
+ l_maxperm="$( printf '%o' $(( 0777 &amp; ~$l_pmask )) )"
+ l_root_path="$(sudo -Hiu root env | grep '^PATH' | cut -d= -f2)"
+ unset a_path_loc &amp;&amp; IFS=":" read -ra a_path_loc &lt;&lt;&lt; "$l_root_path"
+ grep -q "::" &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains a empty directory (::)"
+ grep -Pq ":\h*$" &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains a trailing (:)"
+ grep -Pq '(\h+|:)\.(:|\h*$)' &lt;&lt;&lt; "$l_root_path" &amp;&amp; l_output2="$l_output2\n - root's path contains current working directory (.)"
+ while read -r l_path; do
+ if [ -d "$l_path" ]; then
+ while read -r l_fmode l_fown; do
+ [ "$l_fown" != "root" ] &amp;&amp; l_output2="$l_output2\n - Directory: \"$l_path\" is owned by: \"$l_fown\" should be owned by \"root\""
+ [ $(( $l_fmode &amp; $l_pmask )) -gt 0 ] &amp;&amp; l_output2="$l_output2\n - Directory: \"$l_path\" is mode: \"$l_fmode\" and should be mode: \"$l_maxperm\" or more restrictive"
+ done &lt;&lt;&lt; "$(stat -Lc '%#a %U' "$l_path")"
+ else
+ l_output2="$l_output2\n - \"$l_path\" is not a directory"
+ fi
+ done &lt;&lt;&lt; "$(printf "%s\n" "${a_path_loc[@]}")"
+ if [ -z "$l_output2" ]; then
+ echo -e "\n- Audit Result:\n *** PASS ***\n - Root's path is correctly configured\n"
+ else
+ echo -e "\n- Audit Result:\n ** FAIL **\n - * Reasons for audit failure * :\n$l_output2\n"
+ fi
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure root user umask is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user file-creation mode mask (`umask`) is used to determine the file permission for newly created directories and files. In Linux, the default permissions for any newly created directory is 0777 (`rwxrwxrwx`), and for any newly created file it is 0666 (`rw-rw-rw-`). The `umask` modifies the default Linux permissions by restricting (masking) these permissions. The `umask` is not simply subtracted, but is processed bitwise. Bits set in the `umask` are cleared in the resulting file mode.
+`umask` can be set with either `Octal` or `Symbolic` values:
+- `Octal` (Numeric) Value - Represented by either three or four digits. ie `umask 0027` or `umask 027`. If a four digit umask is used, the first digit is ignored. The remaining three digits effect the resulting permissions for user, group, and world/other respectively.
+- `Symbolic` Value - Represented by a comma separated list for User `u`, group `g`, and world/other `o`. The permissions listed are not masked by `umask`. ie a `umask` set by `umask u=rwx,g=rx,o=` is the `Symbolic` equivalent of the `Octal` `umask 027`. This `umask` would set a newly created directory with file mode `drwxr-x---` and a newly created file with file mode `rw-r-----`.
+**root user Shell Configuration Files:**
+- `/root/.bash_profile` - Is executed to configure the root users' shell before the initial command prompt. **Is only read by login shells.**
+- `/root/.bashrc` - Is executed for interactive shells. **only read by a shell that's both interactive and non-login**
+`umask` is set by order of precedence. If `umask` is set in multiple locations, this order of precedence will determine the system's default `umask`.
+**Order of precedence:**
+1. `/root/.bash_profile`
+2. `/root/.bashrc`
+3. The system default umask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting a secure value for `umask` ensures that users make a conscious choice about their file permissions. A permissive `umask` value could result in directories or files with excessive permissions that can be read and/or written to by unauthorized users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit `/root/.bash_profile` and `/root/.bashrc` and remove, comment out, or update any line with `umask` to be `0027` or more restrictive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following to verify the root user `umask` is set to enforce a newly created directories' permissions to be `750 (drwxr-x---)`, and a newly created file's permissions be `640 (rw-r-----)`, or more restrictive:
+```
+# grep -Psi -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' /root/.bash_profile /root/.bashrc
+```
+Nothing should be returned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIST SP 800-53 Rev. 5: AC-3, MP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System default `umask`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure system accounts do not have a valid login shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a number of accounts provided with most distributions that are used to manage applications and are not intended to provide an interactive shell. Furthermore, a user may add special accounts that are not intended to provide an interactive shell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to make sure that accounts that are not being used by regular users are prevented from being used to provide an interactive shell. By default, most distributions set the password field for these accounts to an invalid string, but it is also recommended that the shell field in the password file be set to the `nologin` shell. This prevents the account from potentially being used to run any commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to set the shell for any service accounts returned by the audit to `nologin`:
+```
+# usermod -s $(command -v nologin) &lt;user&gt;
+```
+_Example script:_
+```
+#!/usr/bin/env bash
+{
+ l_valid_shells="^($( awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
+ awk -v pat="$l_valid_shells" -F: '($1!~/^(root|halt|sync|shutdown|nfsnobody)$/ &amp;&amp; ($3&lt;'"$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)"' || $3 == 65534) &amp;&amp; $(NF) ~ pat) {system ("usermod -s '"$(command -v nologin)"' " $1)}' /etc/passwd
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify system accounts, except for `root`, `halt`, `sync`, `shutdown` or `nfsnobody`, do not have a valid login shell:
+```
+#!/usr/bin/env bash
+{
+ l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
+ awk -v pat="$l_valid_shells" -F: '($1!~/^(root|halt|sync|shutdown|nfsnobody)$/ &amp;&amp; ($3&lt;'"$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)"' || $3 == 65534) &amp;&amp; $(NF) ~ pat) {print "Service account: \"" $1 "\" has a valid shell: " $7}' /etc/passwd
+}
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `root`, `sync`, `shutdown`, and `halt` users are exempted from requiring a non-login shell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIST SP 800-53 Rev. 5: AC-2(5), AC-3, AC-11, MP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure accounts without a valid login shell are locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to lock any non-root accounts without a valid login shell returned by the audit:
+```
+# usermod -L &lt;user&gt;
+```
+_Example script:_:
+```
+#!/usr/bin/env bash
+{
+ l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
+ while IFS= read -r l_user; do
+ passwd -S "$l_user" | awk '$2 !~ /^L/ {system ("usermod -L " $1)}'
+ done &lt; &lt;(awk -v pat="$l_valid_shells" -F: '($1 != "root" &amp;&amp; $(NF) !~ pat) {print $1}' /etc/passwd)
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following script to verify all non-root accounts without a valid login shell are locked.
+```
+#!/usr/bin/env bash
+{
+ l_valid_shells="^($(awk -F\/ '$NF != "nologin" {print}' /etc/shells | sed -rn '/^\//{s,/,\\\\/,g;p}' | paste -s -d '|' - ))$"
+ while IFS= read -r l_user; do
+ passwd -S "$l_user" | awk '$2 !~ /^L/ {print "Account: \"" $1 "\" does not have a valid login shell and is not locked"}'
+ done &lt; &lt;(awk -v pat="$l_valid_shells" -F: '($1 != "root" &amp;&amp; $(NF) !~ pat) {print $1}' /etc/passwd)
+}
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure user default environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure nologin is not listed in /etc/shells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`/etc/shells` is a text file which contains the full pathnames of valid login shells. This file is consulted by `chsh` and available to be queried by other programs.
+Be aware that there are programs which consult this file to find out if a user is a normal user; for example, FTP daemons traditionally disallow access to users with shells not included in this file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A user can use `chsh` to change their configured shell.
+If a user has a shell configured that isn't in in `/etc/shells`, then the system assumes that they're somehow restricted. In the case of `chsh` it means that the user cannot change that value.
+Other programs might query that list and apply similar restrictions.
+By putting `nologin` in `/etc/shells`, any user that has `nologin` as its shell is considered a full, unrestricted user. This is not the expected behavior for `nologin`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit `/etc/shells` and remove any lines that include `nologin`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following command to verify that `nologin` is not listed in the `/etc/shells` file:
+```
+# grep -Ps '^\h*([^#\n\r]+)?\/nologin\b' /etc/shells
+```
+Nothing should be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shells(5):NIST SP 800-53 Rev. 5: CM-1, CM-2, CM-6, CM-7, IA-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure default user shell timeout is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`TMOUT` is an environmental setting that determines the timeout of a shell in seconds.
+- TMOUT=_n_ - Sets the shell timeout to _n_ seconds. A setting of `TMOUT=0` disables timeout.
+- readonly TMOUT- Sets the TMOUT environmental variable as readonly, preventing unwanted modification during run-time.
+- export TMOUT - exports the TMOUT variable 
+**System Wide Shell Configuration Files:**
+- `/etc/profile` - used to set system wide environmental variables on users shells. The variables are sometimes the same ones that are in the `.bash_profile`, however this file is used to set an initial PATH or PS1 for all shell users of the system. **is only executed for interactive *login* shells, or shells executed with the --login parameter.** 
+- `/etc/profile.d` - `/etc/profile` will execute the scripts within `/etc/profile.d/*.sh`. It is recommended to place your configuration in a shell script within `/etc/profile.d` to set your own system wide environmental variables.
+- `/etc/bashrc` - System wide version of `.bashrc`. In Fedora derived distributions, `/etc/bashrc` also invokes /etc/profile.d/*.sh if *non-login* shell, but redirects output to `/dev/null` if *non-interactive.* **Is only executed for *interactive* shells or if `BASH_ENV` is set to `/etc/bashrc`.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting a timeout value reduces the window of opportunity for unauthorized user access to another user's shell session that has been left unattended. It also ends the inactive session and releases the resources associated with that session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review `/etc/bashrc`, `/etc/profile`, and all files ending in `*.sh` in the `/etc/profile.d/` directory and remove or edit all `TMOUT=_n_` entries to follow local site policy. `TMOUT` should not exceed 900 or be equal to `0`.
+Configure `TMOUT` in **one** of the following files:
+- A file in the `/etc/profile.d/` directory ending in `.sh`
+- `/etc/profile`
+- `/etc/bashrc`
+_`TMOUT` configuration examples:_
+- As multiple lines:
+```
+TMOUT=900
+readonly TMOUT
+export TMOUT
+```
+- As a single line:
+```
+readonly TMOUT=900 ; export TMOUT
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following script to verify that `TMOUT` is configured to: include a timeout of no more than `900` seconds, to be `readonly`, to be `exported`, and is not being changed to a longer timeout.
+```
+#!/usr/bin/env bash
+{
+ output1="" output2=""
+ [ -f /etc/bashrc ] &amp;&amp; BRC="/etc/bashrc"
+ for f in "$BRC" /etc/profile /etc/profile.d/*.sh ; do
+ grep -Pq '^\s*([^#]+\s+)?TMOUT=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9])\b' "$f" &amp;&amp; grep -Pq '^\s*([^#]+;\s*)?readonly\s+TMOUT(\s+|\s*;|\s*$|=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9]))\b' "$f" &amp;&amp; grep -Pq '^\s*([^#]+;\s*)?export\s+TMOUT(\s+|\s*;|\s*$|=(900|[1-8][0-9][0-9]|[1-9][0-9]|[1-9]))\b' "$f" &amp;&amp; 
+ output1="$f"
+ done
+ grep -Pq '^\s*([^#]+\s+)?TMOUT=(9[0-9][1-9]|9[1-9][0-9]|0+|[1-9]\d{3,})\b' /etc/profile /etc/profile.d/*.sh "$BRC" &amp;&amp; output2=$(grep -Ps '^\s*([^#]+\s+)?TMOUT=(9[0-9][1-9]|9[1-9][0-9]|0+|[1-9]\d{3,})\b' /etc/profile /etc/profile.d/*.sh $BRC)
+ if [ -n "$output1" ] &amp;&amp; [ -z "$output2" ]; then
+ echo -e "\nPASSED\n\nTMOUT is configured in: \"$output1\"\n"
+ else
+ [ -z "$output1" ] &amp;&amp; echo -e "\nFAILED\n\nTMOUT is not configured\n"
+ [ -n "$output2" ] &amp;&amp; echo -e "\nFAILED\n\nTMOUT is incorrectly configured in: \"$output2\"\n"
+ fi
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked. Other methods of setting a timeout exist for other shells not covered here.
+Ensure that the timeout conforms to your local policy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE:Configure Automatic Session Locking on Enterprise Assets CONTROL:v8 4.3 DESCRIPTION:Configure automatic session locking on enterprise assets after a defined period of inactivity. For general purpose operating systems, the period must not exceed 15 minutes. For mobile end-user devices, the period must not exceed 2 minutes.;TITLE:Lock Workstation Sessions After Inactivity CONTROL:v7 16.11 DESCRIPTION:Automatically lock workstation sessions after a standard period of inactivity.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure default user umask is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user file-creation mode mask (`umask`) is used to determine the file permission for newly created directories and files. In Linux, the default permissions for any newly created directory is 0777 (`rwxrwxrwx`), and for any newly created file it is 0666 (`rw-rw-rw-`). The `umask` modifies the default Linux permissions by restricting (masking) these permissions. The `umask` is not simply subtracted, but is processed bitwise. Bits set in the `umask` are cleared in the resulting file mode.
+`umask` can be set with either `Octal` or `Symbolic` values:
+- `Octal` (Numeric) Value - Represented by either three or four digits. ie `umask 0027` or `umask 027`. If a four digit umask is used, the first digit is ignored. The remaining three digits effect the resulting permissions for user, group, and world/other respectively.
+- `Symbolic` Value - Represented by a comma separated list for User `u`, group `g`, and world/other `o`. The permissions listed are not masked by `umask`. ie a `umask` set by `umask u=rwx,g=rx,o=` is the `Symbolic` equivalent of the `Octal` `umask 027`. This `umask` would set a newly created directory with file mode `drwxr-x---` and a newly created file with file mode `rw-r-----`.
+The default `umask` can be set to use the `pam_umask` module or in a `System Wide Shell Configuration File`. The user creating the directories or files has the discretion of changing the permissions via the chmod command, or choosing a different default `umask` by adding the `umask` command into a `User Shell Configuration File`, ( `.bash_profile` or `.bashrc`), in their home directory.
+**Setting the default umask:**
+- pam_umask module:
+ - will set the umask according to the system default in `/etc/login.defs` and user settings, solving the problem of different `umask` settings with different shells, display managers, remote sessions etc.
+ - `umask=&lt;mask&gt;` value in the `/etc/login.defs` file is interpreted as Octal
+ - Setting `USERGROUPS_ENAB` to yes in `/etc/login.defs` (default):
+ - will enable setting of the `umask` group bits to be the same as owner bits. (examples: 022 -&gt; 002, 077 -&gt; 007) for non-root users, if the `uid` is the same as `gid`, and `username` is the same as the `&lt;primary group name&gt;`
+ - userdel will remove the user's group if it contains no more members, and useradd will create by default a group with the name of the user
+- `System Wide Shell Configuration File`:
+ - `/etc/profile` - used to set system wide environmental variables on users shells. The variables are sometimes the same ones that are in the `.bash_profile`, however this file is used to set an initial PATH or PS1 for all shell users of the system. **is only executed for interactive *login* shells, or shells executed with the --login parameter.** 
+ - `/etc/profile.d` - `/etc/profile` will execute the scripts within `/etc/profile.d/*.sh`. It is recommended to place your configuration in a shell script within `/etc/profile.d` to set your own system wide environmental variables.
+ - `/etc/bashrc` - System wide version of `.bashrc`. In Fedora derived distributions, `etc/bashrc` also invokes /etc/profile.d/*.sh if *non-login* shell, but redirects output to `/dev/null` if *non-interactive.* **Is only executed for *interactive* shells or if `BASH_ENV` is set to `/etc/bashrc`.**
+**User Shell Configuration Files:**
+- `~/.bash_profile` - Is executed to configure your shell before the initial command prompt. **Is only read by login shells.**
+- `~/.bashrc` - Is executed for interactive shells. **only read by a shell that's both interactive and non-login**
+`umask` is set by order of precedence. If `umask` is set in multiple locations, this order of precedence will determine the system's default `umask`.
+**Order of precedence:**
+1. A file in `/etc/profile.d/` ending in `.sh` - This will override any other system-wide `umask` setting
+2. In the file `/etc/profile`
+3. On the `pam_umask.so` module in `/etc/pam.d/postlogin`
+4. In the file `/etc/login.defs`
+5. In the file `/etc/default/login`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting a secure default value for `umask` ensures that users make a conscious choice about their file permissions. A permissive `umask` value could result in directories or files with excessive permissions that can be read and/or written to by unauthorized users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following script and perform the instructions in the output to set the default umask to `027` or more restrictive:
+```
+#!/usr/bin/env bash
+{
+ l_output="" l_output2="" l_out=""
+ file_umask_chk()
+ {
+ if grep -Psiq -- '^\h*umask\h+(0?[0-7][2-7]7|u(=[rwx]{0,3}),g=([rx]{0,2}),o=)(\h*#.*)?$' "$l_file"; then
+ l_out="$l_out\n - umask is set correctly in \"$l_file\""
+ elif grep -Psiq -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' "$l_file"; then
+ l_output2="$l_output2\n - \"$l_file\""
+ fi
+ }
+ while IFS= read -r -d $'\0' l_file; do
+ file_umask_chk
+ done &lt; &lt;(find /etc/profile.d/ -type f -name '*.sh' -print0)
+ [ -n "$l_out" ] &amp;&amp; l_output="$l_out"
+ l_file="/etc/profile" &amp;&amp; file_umask_chk
+ l_file="/etc/bashrc" &amp;&amp; file_umask_chk
+ l_file="/etc/bash.bashrc" &amp;&amp; file_umask_chk
+ l_file="/etc/pam.d/postlogin"
+ if grep -Psiq '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b))' "$l_file"; then
+ l_output2="$l_output2\n - \"$l_file\""
+ fi
+ l_file="/etc/login.defs" &amp;&amp; file_umask_chk
+ l_file="/etc/default/login" &amp;&amp; file_umask_chk
+ if [ -z "$l_output2" ]; then
+ echo -e " - No files contain a UMASK that is not restrictive enough\n No UMASK updates required to existing files"
+ else
+ echo -e "\n - UMASK is not restrictive enough in the following file(s):$l_output2\n\n- Remediation Procedure:\n - Update these files and comment out the UMASK line\n or update umask to be \"0027\" or more restrictive"
+ fi
+ if [ -n "$l_output" ]; then
+ echo -e "$l_output"
+ else
+ echo -e " - Configure UMASK in a file in the \"/etc/profile.d/\" directory ending in \".sh\"\n\n Example Command (Hash to represent being run at a root prompt):\n\n# printf '%s\\\n' \"umask 027\" &gt; /etc/profile.d/50-systemwide_umask.sh\n"
+ fi
+}
+```
+**Notes:**
+- This method only applies to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked
+- If the `pam_umask.so` module is going to be used to set `umask`, ensure that it's not being overridden by another setting. Refer to the PAM_UMASK(8) man page for more information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the following to verify the default user `umask` is set to `027`(octal) or `u=rwx,g=rx,o=` (Symbolic) to enforce newly created directories' permissions to be `750 (drwxr-x---)`, and newly created file's permissions be `640 (rw-r-----)`, or more restrictive:
+```
+#!/usr/bin/env bash
+{ 
+ l_output="" l_output2=""
+ file_umask_chk()
+ {
+ if grep -Psiq -- '^\h*umask\h+(0?[0-7][2-7]7|u(=[rwx]{0,3}),g=([rx]{0,2}),o=)(\h*#.*)?$' "$l_file"; then
+ l_output="$l_output\n - umask is set correctly in \"$l_file\""
+ elif grep -Psiq -- '^\h*umask\h+(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b|[0-7][0-7][0-6]\b)|(u=[rwx]{1,3},)?(((g=[rx]?[rx]?w[rx]?[rx]?\b)(,o=[rwx]{1,3})?)|((g=[wrx]{1,3},)?o=[wrx]{1,3}\b)))' "$l_file"; then
+ l_output2="$l_output2\n - umask is incorrectly set in \"$l_file\""
+ fi
+ }
+ while IFS= read -r -d $'\0' l_file; do
+ file_umask_chk
+ done &lt; &lt;(find /etc/profile.d/ -type f -name '*.sh' -print0)
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/profile" &amp;&amp; file_umask_chk
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/bashrc" &amp;&amp; file_umask_chk
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/bash.bashrc" &amp;&amp; file_umask_chk
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/pam.d/postlogin"
+ if [ -z "$l_output" ]; then
+ if grep -Psiq -- '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(0?[0-7][2-7]7)\b' "$l_file"; then
+ l_output1="$l_output1\n - umask is set correctly in \"$l_file\""
+ elif grep -Psiq '^\h*session\h+[^#\n\r]+\h+pam_umask\.so\h+([^#\n\r]+\h+)?umask=(([0-7][0-7][01][0-7]\b|[0-7][0-7][0-7][0-6]\b)|([0-7][01][0-7]\b))' "$l_file"; then
+ l_output2="$l_output2\n - umask is incorrectly set in \"$l_file\""
+ fi
+ fi
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/login.defs" &amp;&amp; file_umask_chk
+ [ -z "$l_output" ] &amp;&amp; l_file="/etc/default/login" &amp;&amp; file_umask_chk
+ [[ -z "$l_output" &amp;&amp; -z "$l_output2" ]] &amp;&amp; l_output2="$l_output2\n - umask is not set"
+ if [ -z "$l_output2" ]; then
+ echo -e "\n- Audit Result:\n ** PASS **\n - * Correctly configured * :\n$l_output\n"
+ else
+ echo -e "\n- Audit Result:\n ** FAIL **\n - * Reasons for audit failure * :\n$l_output2"
+ [ -n "$l_output" ] &amp;&amp; echo -e "\n- * Correctly configured * :\n$l_output\n"
+ fi
+}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- Other methods of setting a default user umask exist
+- If other methods are in use in your environment they should be audited
+- The default user umask can be overridden with a user specific umask
+- The user creating the directories or files has the discretion of changing the permissions:
+ - Using the chmod command
+ - Setting a different default umask by adding the umask command into a User Shell Configuration File, (.bashrc), in their home directory
+ - Manually changing the umask for the duration of a login session by running the umask command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMASK 022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging and Auditing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The items in this section describe how to configure logging, log monitoring, and auditing, using tools included in most distributions.
+It is recommended that `rsyslog `be used for logging (with `logwatch `providing summarization) and `auditd` be used for auditing (with `aureport `providing summarization) to automatically monitor logs for intrusion attempts and other suspicious system behavior.
+In addition to the local log files created by the steps in this section, it is also recommended that sites collect copies of their system logs on a secure, centralized log server via an encrypted connection. Not only does centralized logging help sites correlate events that may be occurring on multiple systems, but having a second copy of the system log information may be critical after a system compromise where the attacker has modified the local log files on the affected system(s). If a log correlation system is deployed, configure it to process the logs described in this section.
+Because it is often necessary to correlate log information from many different systems (particularly after a security incident) it is recommended that the time be synchronized among systems and devices connected to the local network. The standard Internet protocol for time synchronization is the Network Time Protocol (NTP), which is supported by most network-ready devices. Reference &lt;[http://chrony.tuxfamily.org/](http://chrony.tuxfamily.org/)&gt; manual page for more information on configuring chrony.
+It is important that all logs described in this section be monitored on a regular basis and correlated to determine trends. A seemingly innocuous entry in one log could be more significant when compared to an entry in another log.
+**Note on log file permissions:** There really isn't a "one size fits all" solution to the permissions on log files. Many sites utilize group permissions so that administrators who are in a defined security group, such as "wheel" do not have to elevate privileges to root in order to read log files. Also, if a third party log aggregation tool is used, it may need to have group permissions to read the log files, which is preferable to having it run setuid to root. Therefore, there are two remediation and audit steps for log file permissions. One is for systems that do not have a secured group method implemented that only permits root to read the log files (`root:root 600`). The other is for sites that do have such a setup and are designated as `root:securegrp 640 `where `securegrp` is the defined security group (in some cases `wheel`).</t>
   </si>
 </sst>
 </file>
@@ -3366,10 +4247,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="159:159 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="175.01"/>
   </cols>
@@ -3408,10 +4289,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="159:159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15"/>
@@ -10630,45 +11511,2324 @@
       </c>
       <c r="Z120" s="6"/>
     </row>
-    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y123" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z123" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z124" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y125" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z125" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X126" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y126" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z126" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X127" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X129" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y129" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z129" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H130" s="5"/>
+      <c r="I130" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y130" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z130" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M131" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y131" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z131" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y132" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z132" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="8"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="8"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H138" s="5"/>
+      <c r="I138" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y138" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z138" s="6"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S139" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y139" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z139" s="8"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y140" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z140" s="6"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H141" s="7"/>
+      <c r="I141" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M141" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S141" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T141" s="7"/>
+      <c r="U141" s="7"/>
+      <c r="V141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y141" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M143" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S143" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T143" s="7"/>
+      <c r="U143" s="7"/>
+      <c r="V143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y143" s="7"/>
+      <c r="Z143" s="8"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="7"/>
+      <c r="Y145" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z145" s="8"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X146" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y146" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z146" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S147" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z147" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y148" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z148" s="6"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H149" s="7"/>
+      <c r="I149" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M149" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S149" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T149" s="7"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X149" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y149" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="H150" s="5"/>
+      <c r="I150" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X150" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y150" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z150" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="I151" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S151" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X151" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y151" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z151" s="8"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="6"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z153" s="8"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z154" s="6"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H155" s="7"/>
+      <c r="I155" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="M155" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S155" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H156" s="5"/>
+      <c r="I156" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X156" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="6"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H157" s="7"/>
+      <c r="I157" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M157" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S157" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T157" s="7"/>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y157" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z157" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H158" s="5"/>
+      <c r="I158" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y158" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z158" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="8"/>
+    </row>
     <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
